--- a/Hw_7/Problem4.xlsx
+++ b/Hw_7/Problem4.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Time Delay </t>
   </si>
   <si>
     <t>Kc Bound Upper</t>
+  </si>
+  <si>
+    <t>Simulink</t>
   </si>
 </sst>
 </file>
@@ -319,11 +322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1737376768"/>
-        <c:axId val="-1741854160"/>
+        <c:axId val="97844752"/>
+        <c:axId val="56386560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1737376768"/>
+        <c:axId val="97844752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,12 +438,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1741854160"/>
+        <c:crossAx val="56386560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1741854160"/>
+        <c:axId val="56386560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1737376768"/>
+        <c:crossAx val="97844752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1460,23 +1463,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1484,8 +1490,12 @@
         <f>(A2+20)/(A2*(A2+40))</f>
         <v>0.51219512195121952</v>
       </c>
+      <c r="C2">
+        <f>2*B2</f>
+        <v>1.024390243902439</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1493,8 +1503,12 @@
         <f t="shared" ref="B3:B16" si="0">(A3+20)/(A3*(A3+40))</f>
         <v>0.26190476190476192</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C16" si="1">2*B3</f>
+        <v>0.52380952380952384</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1502,8 +1516,12 @@
         <f t="shared" si="0"/>
         <v>0.17829457364341086</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.35658914728682173</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1511,8 +1529,12 @@
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.27272727272727271</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1520,8 +1542,12 @@
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1529,8 +1555,12 @@
         <f t="shared" si="0"/>
         <v>9.420289855072464E-2</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.18840579710144928</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1538,8 +1568,12 @@
         <f t="shared" si="0"/>
         <v>8.2066869300911852E-2</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.1641337386018237</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1547,8 +1581,12 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666671E-2</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333334</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1556,8 +1594,12 @@
         <f t="shared" si="0"/>
         <v>6.5759637188208611E-2</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.13151927437641722</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1565,8 +1607,12 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1574,8 +1620,12 @@
         <f t="shared" si="0"/>
         <v>5.5258467023172907E-2</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.11051693404634581</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1583,8 +1633,12 @@
         <f t="shared" si="0"/>
         <v>5.128205128205128E-2</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.10256410256410256</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1592,8 +1646,12 @@
         <f t="shared" si="0"/>
         <v>4.7895500725689405E-2</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>9.579100145137881E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1601,14 +1659,22 @@
         <f t="shared" si="0"/>
         <v>4.4973544973544971E-2</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>8.9947089947089942E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>4.2424242424242427E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>8.4848484848484854E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Hw_7/Problem4.xlsx
+++ b/Hw_7/Problem4.xlsx
@@ -322,11 +322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97844752"/>
-        <c:axId val="56386560"/>
+        <c:axId val="-640556288"/>
+        <c:axId val="-641001248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97844752"/>
+        <c:axId val="-640556288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,6 +402,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -438,12 +439,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56386560"/>
+        <c:crossAx val="-641001248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56386560"/>
+        <c:axId val="-641001248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97844752"/>
+        <c:crossAx val="-640556288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1466,7 +1467,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
